--- a/data/test_inputs/preprocessing/ecology_format/ecology_values_PP_impeller.xlsx
+++ b/data/test_inputs/preprocessing/ecology_format/ecology_values_PP_impeller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/ecology_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/preprocessing/ecology_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D08CDB-1E1C-FE4F-9FA3-BAD7E3466B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAAFCCD-F2E1-674A-BC34-717BF9ACD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="500" windowWidth="19880" windowHeight="16440" activeTab="1" xr2:uid="{30C3F89F-D289-D440-B475-F6709BC5C155}"/>
+    <workbookView xWindow="6240" yWindow="500" windowWidth="19880" windowHeight="16440" xr2:uid="{30C3F89F-D289-D440-B475-F6709BC5C155}"/>
   </bookViews>
   <sheets>
     <sheet name="ecological_params" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,6 @@
     <t>resources</t>
   </si>
   <si>
-    <t>PP_impellar_virgin_(recipe_endpoint_h)</t>
-  </si>
-  <si>
-    <t>PP_impellar_recycled_(recipe_endpoint_h)</t>
-  </si>
-  <si>
-    <t>PP_impellar_recycled_vision_(recipe_endpoint_h)</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -56,6 +47,15 @@
   </si>
   <si>
     <t>Inversion</t>
+  </si>
+  <si>
+    <t>PP_virgin</t>
+  </si>
+  <si>
+    <t>PP_recycled</t>
+  </si>
+  <si>
+    <t>PP_recycled_industrial</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFBFD91-627C-E146-9E63-3BEE6F708509}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,14 +462,14 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E825B-2AF1-E242-8AD5-86B739416E1B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -534,13 +534,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
